--- a/RawData/effect_of_liquid_to_solid_ratio_on_autohydrolysis_of_eucalyptus_globulus_wood_meal.xlsx
+++ b/RawData/effect_of_liquid_to_solid_ratio_on_autohydrolysis_of_eucalyptus_globulus_wood_meal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose(July 3rd)/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789F4DE-8BA6-B640-9ED1-79F561D32F47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C4053-ED79-B64A-B037-4850FEC28D8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,11 +187,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1664,40 +1664,40 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="19" width="8.83203125" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="26" width="8.83203125" customWidth="1"/>
+    <col min="21" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2215,80 +2215,72 @@
         <v>0.25428571428571428</v>
       </c>
     </row>
-    <row r="17" spans="19:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S17" s="2"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="19:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="19:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="19:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-    </row>
-    <row r="32" spans="19:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="19:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="21:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="35" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="21:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
